--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="6780"/>
+    <workbookView windowWidth="20490" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$D$1:$D$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$C$1:$C$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -146,13 +146,13 @@
     <t>LVSI+</t>
   </si>
   <si>
+    <t>Stage IIC-cervical stroma +</t>
+  </si>
+  <si>
+    <t>VBT/observation</t>
+  </si>
+  <si>
     <t>Any</t>
-  </si>
-  <si>
-    <t>Stage IIC-cervical stroma +</t>
-  </si>
-  <si>
-    <t>VBT/observation</t>
   </si>
   <si>
     <t>High (G3)</t>
@@ -252,13 +252,19 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -725,138 +731,141 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1395,7 +1404,7 @@
   <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2062,14 +2071,14 @@
       <c r="B26" t="s">
         <v>37</v>
       </c>
-      <c r="C26" t="s">
-        <v>38</v>
+      <c r="C26" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
         <v>30</v>
@@ -2088,8 +2097,8 @@
       <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="C27" t="s">
-        <v>38</v>
+      <c r="C27" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -2156,7 +2165,7 @@
         <v>31</v>
       </c>
       <c r="H29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2164,7 +2173,7 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
         <v>41</v>
@@ -2190,7 +2199,7 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
@@ -2216,7 +2225,7 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
         <v>41</v>
@@ -2242,7 +2251,7 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
         <v>41</v>
@@ -2268,7 +2277,7 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -2294,7 +2303,7 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
         <v>41</v>
@@ -2320,7 +2329,7 @@
         <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
         <v>41</v>
@@ -2346,7 +2355,7 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
         <v>41</v>
@@ -2372,7 +2381,7 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
         <v>41</v>
@@ -2398,7 +2407,7 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
         <v>41</v>
@@ -2424,7 +2433,7 @@
         <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
         <v>41</v>
@@ -2450,7 +2459,7 @@
         <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
         <v>41</v>
@@ -2476,13 +2485,13 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E42" t="s">
         <v>50</v>
@@ -2502,10 +2511,10 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D43" t="s">
         <v>51</v>
@@ -2528,13 +2537,13 @@
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E44" t="s">
         <v>50</v>
@@ -2554,10 +2563,10 @@
         <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D45" t="s">
         <v>51</v>
@@ -2577,13 +2586,13 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -2918,10 +2927,10 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
@@ -2944,10 +2953,10 @@
         <v>17</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D60" t="s">
         <v>11</v>
@@ -2970,13 +2979,13 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E61" t="s">
         <v>60</v>
@@ -2996,13 +3005,13 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E62" t="s">
         <v>64</v>
@@ -3022,13 +3031,13 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E63" t="s">
         <v>65</v>
@@ -3048,13 +3057,13 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>38</v>
-      </c>
-      <c r="C64" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E64" t="s">
         <v>66</v>
@@ -3074,13 +3083,13 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
-      </c>
-      <c r="C65" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E65" t="s">
         <v>67</v>
@@ -3100,13 +3109,13 @@
         <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E66" t="s">
         <v>60</v>
@@ -3126,13 +3135,13 @@
         <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
-      </c>
-      <c r="C67" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E67" t="s">
         <v>64</v>
@@ -3152,13 +3161,13 @@
         <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>38</v>
-      </c>
-      <c r="C68" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E68" t="s">
         <v>68</v>
@@ -3178,13 +3187,13 @@
         <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
-      </c>
-      <c r="C69" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E69" t="s">
         <v>69</v>
@@ -3204,13 +3213,13 @@
         <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>38</v>
-      </c>
-      <c r="C70" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E70" t="s">
         <v>67</v>
@@ -3226,7 +3235,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="D1:D70" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:C70" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -10,7 +10,7 @@
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$C$1:$C$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$E$1:$E$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="64">
   <si>
     <t>Age</t>
   </si>
@@ -134,15 +134,12 @@
     <t>Stage IIB</t>
   </si>
   <si>
-    <t>vbt</t>
+    <t>vbt/observation</t>
   </si>
   <si>
     <t>Stage IIB,pNo</t>
   </si>
   <si>
-    <t>observation</t>
-  </si>
-  <si>
     <t>LVSI+</t>
   </si>
   <si>
@@ -182,7 +179,7 @@
     <t>(Except IC)</t>
   </si>
   <si>
-    <t>Stage III–IVA</t>
+    <t>Stage III-IVA</t>
   </si>
   <si>
     <t>(Except polemut)</t>
@@ -203,15 +200,6 @@
     <t>Individualized / Usually No Adjuvant</t>
   </si>
   <si>
-    <t>StageIA1</t>
-  </si>
-  <si>
-    <t>StageIC</t>
-  </si>
-  <si>
-    <t>Stage III-IVA</t>
-  </si>
-  <si>
     <t>Stage IVB</t>
   </si>
   <si>
@@ -224,22 +212,16 @@
     <t>Systemic therapy / Palliative RT</t>
   </si>
   <si>
-    <t>Stage  IVC</t>
-  </si>
-  <si>
-    <t>Stage Unresectable</t>
-  </si>
-  <si>
-    <t>Stage residual</t>
-  </si>
-  <si>
-    <t>recurrent</t>
+    <t>Stage IVC</t>
   </si>
   <si>
     <t>Unresectable</t>
   </si>
   <si>
-    <t>residual</t>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Recurrent</t>
   </si>
 </sst>
 </file>
@@ -861,8 +843,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1401,15 +1386,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="3" max="3" width="46.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="20.1428571428571" customWidth="1"/>
     <col min="5" max="5" width="39.4285714285714" customWidth="1"/>
     <col min="6" max="6" width="28.5714285714286" customWidth="1"/>
   </cols>
@@ -2014,19 +2000,19 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
         <v>30</v>
@@ -2035,7 +2021,7 @@
         <v>31</v>
       </c>
       <c r="H24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2043,16 +2029,16 @@
         <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D25" t="s">
         <v>18</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
         <v>30</v>
@@ -2061,7 +2047,7 @@
         <v>31</v>
       </c>
       <c r="H25" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2069,16 +2055,16 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
         <v>30</v>
@@ -2095,16 +2081,16 @@
         <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
         <v>30</v>
@@ -2113,7 +2099,7 @@
         <v>31</v>
       </c>
       <c r="H27" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2121,51 +2107,51 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H28" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H29" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2173,25 +2159,25 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
         <v>40</v>
       </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
       <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
         <v>42</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>43</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>44</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>45</v>
-      </c>
-      <c r="H30" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2199,25 +2185,25 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
         <v>40</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>41</v>
       </c>
-      <c r="D31" t="s">
-        <v>47</v>
-      </c>
       <c r="E31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" t="s">
         <v>43</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>44</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>45</v>
-      </c>
-      <c r="H31" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2225,25 +2211,25 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
         <v>40</v>
       </c>
-      <c r="C32" t="s">
-        <v>41</v>
-      </c>
       <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" t="s">
         <v>48</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>43</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>44</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>45</v>
-      </c>
-      <c r="H32" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2251,77 +2237,77 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
         <v>40</v>
       </c>
-      <c r="C33" t="s">
-        <v>41</v>
-      </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" t="s">
         <v>44</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>45</v>
-      </c>
-      <c r="H33" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
         <v>40</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>41</v>
       </c>
-      <c r="D34" t="s">
-        <v>47</v>
-      </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" t="s">
         <v>44</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>45</v>
-      </c>
-      <c r="H34" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
         <v>40</v>
       </c>
-      <c r="C35" t="s">
-        <v>41</v>
-      </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" t="s">
         <v>44</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>45</v>
-      </c>
-      <c r="H35" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2329,25 +2315,25 @@
         <v>17</v>
       </c>
       <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
         <v>40</v>
       </c>
-      <c r="C36" t="s">
-        <v>41</v>
-      </c>
       <c r="D36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" t="s">
         <v>42</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>43</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>44</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>45</v>
-      </c>
-      <c r="H36" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2355,25 +2341,25 @@
         <v>17</v>
       </c>
       <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
         <v>40</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>41</v>
       </c>
-      <c r="D37" t="s">
-        <v>47</v>
-      </c>
       <c r="E37" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" t="s">
         <v>43</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>44</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>45</v>
-      </c>
-      <c r="H37" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2381,25 +2367,25 @@
         <v>17</v>
       </c>
       <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
         <v>40</v>
       </c>
-      <c r="C38" t="s">
-        <v>41</v>
-      </c>
       <c r="D38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" t="s">
         <v>48</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>43</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>44</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>45</v>
-      </c>
-      <c r="H38" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2407,129 +2393,129 @@
         <v>17</v>
       </c>
       <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
         <v>40</v>
       </c>
-      <c r="C39" t="s">
-        <v>41</v>
-      </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" t="s">
         <v>44</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>45</v>
-      </c>
-      <c r="H39" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E40" t="s">
         <v>49</v>
       </c>
       <c r="F40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" t="s">
         <v>44</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>45</v>
-      </c>
-      <c r="H40" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E41" t="s">
         <v>49</v>
       </c>
       <c r="F41" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" t="s">
         <v>44</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>45</v>
-      </c>
-      <c r="H41" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" t="s">
         <v>44</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>45</v>
-      </c>
-      <c r="H42" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G43" t="s">
         <v>44</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>45</v>
-      </c>
-      <c r="H43" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2537,77 +2523,77 @@
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F44" t="s">
+        <v>43</v>
+      </c>
+      <c r="G44" t="s">
         <v>44</v>
       </c>
-      <c r="G44" t="s">
-        <v>45</v>
-      </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" t="s">
+        <v>43</v>
+      </c>
+      <c r="G45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" t="s">
         <v>51</v>
-      </c>
-      <c r="E45" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" t="s">
-        <v>44</v>
-      </c>
-      <c r="G45" t="s">
-        <v>45</v>
-      </c>
-      <c r="H45" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
         <v>40</v>
       </c>
-      <c r="B46" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="H46" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2618,22 +2604,22 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" t="s">
         <v>41</v>
       </c>
-      <c r="D47" t="s">
-        <v>48</v>
-      </c>
       <c r="E47" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" t="s">
         <v>53</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>54</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>55</v>
-      </c>
-      <c r="H47" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2644,22 +2630,22 @@
         <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E48" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" t="s">
         <v>53</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>54</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>55</v>
-      </c>
-      <c r="H48" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2670,22 +2656,22 @@
         <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
         <v>47</v>
       </c>
       <c r="E49" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" t="s">
         <v>53</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>54</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>55</v>
-      </c>
-      <c r="H49" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2696,22 +2682,22 @@
         <v>9</v>
       </c>
       <c r="C50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" t="s">
         <v>41</v>
-      </c>
-      <c r="D50" t="s">
-        <v>48</v>
       </c>
       <c r="E50" t="s">
         <v>20</v>
       </c>
       <c r="F50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G50" t="s">
         <v>54</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>55</v>
-      </c>
-      <c r="H50" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2722,48 +2708,48 @@
         <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D51" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E51" t="s">
         <v>20</v>
       </c>
       <c r="F51" t="s">
+        <v>53</v>
+      </c>
+      <c r="G51" t="s">
         <v>54</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>55</v>
-      </c>
-      <c r="H51" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B52" t="s">
         <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D52" t="s">
         <v>47</v>
       </c>
-      <c r="E52" t="s">
-        <v>20</v>
+      <c r="E52" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="F52" t="s">
+        <v>53</v>
+      </c>
+      <c r="G52" t="s">
         <v>54</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>55</v>
-      </c>
-      <c r="H52" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2774,22 +2760,22 @@
         <v>9</v>
       </c>
       <c r="C53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" t="s">
         <v>41</v>
       </c>
-      <c r="D53" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" t="s">
-        <v>57</v>
+      <c r="E53" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="F53" t="s">
+        <v>53</v>
+      </c>
+      <c r="G53" t="s">
         <v>54</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>55</v>
-      </c>
-      <c r="H53" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2800,22 +2786,22 @@
         <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>42</v>
-      </c>
-      <c r="E54" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="F54" t="s">
+        <v>53</v>
+      </c>
+      <c r="G54" t="s">
         <v>54</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>55</v>
-      </c>
-      <c r="H54" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2826,22 +2812,22 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
         <v>47</v>
       </c>
       <c r="E55" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="F55" t="s">
+        <v>53</v>
+      </c>
+      <c r="G55" t="s">
         <v>54</v>
       </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>55</v>
-      </c>
-      <c r="H55" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2852,22 +2838,22 @@
         <v>9</v>
       </c>
       <c r="C56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" t="s">
         <v>41</v>
       </c>
-      <c r="D56" t="s">
-        <v>48</v>
-      </c>
       <c r="E56" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="F56" t="s">
+        <v>53</v>
+      </c>
+      <c r="G56" t="s">
         <v>54</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>55</v>
-      </c>
-      <c r="H56" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2878,56 +2864,56 @@
         <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E57" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="F57" t="s">
+        <v>53</v>
+      </c>
+      <c r="G57" t="s">
         <v>54</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>55</v>
-      </c>
-      <c r="H57" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F58" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58" t="s">
         <v>54</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>55</v>
-      </c>
-      <c r="H58" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>10</v>
@@ -2936,42 +2922,42 @@
         <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F59" t="s">
+        <v>53</v>
+      </c>
+      <c r="G59" t="s">
         <v>54</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>55</v>
-      </c>
-      <c r="H59" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E60" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60" t="s">
+        <v>57</v>
+      </c>
+      <c r="G60" t="s">
+        <v>58</v>
+      </c>
+      <c r="H60" t="s">
         <v>59</v>
-      </c>
-      <c r="F60" t="s">
-        <v>54</v>
-      </c>
-      <c r="G60" t="s">
-        <v>55</v>
-      </c>
-      <c r="H60" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2979,25 +2965,25 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E61" t="s">
         <v>60</v>
       </c>
       <c r="F61" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G61" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H61" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3005,25 +2991,25 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E62" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G62" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H62" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3031,25 +3017,25 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E63" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G63" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H63" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3057,51 +3043,51 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E64" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F64" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G64" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H64" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E65" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F65" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G65" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H65" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3109,25 +3095,25 @@
         <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E66" t="s">
         <v>60</v>
       </c>
       <c r="F66" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G66" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H66" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3135,25 +3121,25 @@
         <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E67" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F67" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G67" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H67" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3161,25 +3147,25 @@
         <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E68" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G68" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H68" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3187,55 +3173,29 @@
         <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E69" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F69" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G69" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H69" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" t="s">
-        <v>17</v>
-      </c>
-      <c r="B70" t="s">
-        <v>40</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" t="s">
-        <v>40</v>
-      </c>
-      <c r="E70" t="s">
-        <v>67</v>
-      </c>
-      <c r="F70" t="s">
-        <v>61</v>
-      </c>
-      <c r="G70" t="s">
-        <v>62</v>
-      </c>
-      <c r="H70" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:C70" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="E1:E69" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
